--- a/Institusjonell sektorgruppering 2012.xlsx
+++ b/Institusjonell sektorgruppering 2012.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/næring/Makro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{88D1DCDB-98AD-4376-852B-754196D7C6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:40009_{88D1DCDB-98AD-4376-852B-754196D7C6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F2EBEAA-455C-454D-AB6E-6588DF04B6D0}"/>
   <bookViews>
-    <workbookView xWindow="-57708" yWindow="-108" windowWidth="29016" windowHeight="17616"/>
+    <workbookView xWindow="-28908" yWindow="900" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="92" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>notes</t>
   </si>
@@ -191,12 +191,15 @@
   </si>
   <si>
     <t>Detaljert sektor</t>
+  </si>
+  <si>
+    <t>Ufordelt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1030,11 +1033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,7 +1332,277 @@
         <v>50</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns1:PublishingStartDate" minOccurs="0"/>
+                <xsd:element ref="ns1:PublishingExpirationDate" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="PublishingStartDate" ma:index="8" nillable="true" ma:displayName="Planlagt startdato" ma:description="Planlagt startdato er en områdekolonne som opprettes av publiseringsfunksjonen. Den brukes til å angi dato og klokkeslett for når denne siden vises for første gang for besøkende på området." ma:hidden="true" ma:internalName="PublishingStartDate">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="PublishingExpirationDate" ma:index="9" nillable="true" ma:displayName="Planlagt utløpsdato" ma:description="Planlagt sluttdato er en områdekolonne som opprettes av publiseringsfunksjonen. Den brukes til å angi dato og klokkeslett for når denne siden ikke lenger vises for besøkende på området." ma:hidden="true" ma:internalName="PublishingExpirationDate">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innholdstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tittel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEF3546-C3E3-4E5A-A5BD-0C13AC749DC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A37B37-1A59-4161-8B44-BCBD3E747F56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA602F4-21B5-43C7-8908-575012CEA93E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Institusjonell sektorgruppering 2012.xlsx
+++ b/Institusjonell sektorgruppering 2012.xlsx
@@ -1355,10 +1355,11 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1378,6 +1379,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1460,6 +1463,28 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="17f1e631-7134-4ce3-8a3d-482fd88a4c57" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cfd1b471-962e-4074-a3f5-f81efd63bd54}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a65edee0-4267-4101-9877-75c307db3846">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1566,6 +1591,10 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
@@ -1579,22 +1608,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A37B37-1A59-4161-8B44-BCBD3E747F56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B21BE4-BB33-4812-803E-132CDF67D025}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Institusjonell sektorgruppering 2012.xlsx
+++ b/Institusjonell sektorgruppering 2012.xlsx
@@ -1355,8 +1355,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
@@ -1381,6 +1381,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1470,6 +1471,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
@@ -1608,7 +1614,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B21BE4-BB33-4812-803E-132CDF67D025}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36CA7CA3-1E59-43F7-87FB-58EC0B45F857}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Institusjonell sektorgruppering 2012.xlsx
+++ b/Institusjonell sektorgruppering 2012.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/næring/Makro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:40009_{88D1DCDB-98AD-4376-852B-754196D7C6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F2EBEAA-455C-454D-AB6E-6588DF04B6D0}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{88D1DCDB-98AD-4376-852B-754196D7C6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E50D7F25-EB9A-4253-912A-99FD3015D836}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="900" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="92" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>notes</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Ufordelt</t>
+  </si>
+  <si>
+    <t>Alternative investeringsfond (AIF) utenom verdipapirfond</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
@@ -1340,23 +1343,22 @@
         <v>57</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="17" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="3db192e2b8bfccba086ae9dac43014e9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="28af6c196815f27f167902d0c17178f2" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
@@ -1382,6 +1384,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1475,6 +1478,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1592,6 +1600,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1606,15 +1623,31 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB580EE-666A-402B-8806-FA7C3A9E8213}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEF3546-C3E3-4E5A-A5BD-0C13AC749DC4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36CA7CA3-1E59-43F7-87FB-58EC0B45F857}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1623,6 +1656,8 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>